--- a/Project/static/next_month.xlsx
+++ b/Project/static/next_month.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,819 +458,1580 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2021-06-11</t>
+          <t>2021-06-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>富豐雜貨店</t>
+          <t>林小姐莫爾設計</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9963168</t>
+          <t>9572747,0921825262、0935600599</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>蘇澳鎮南安路70號</t>
+          <t>羅東鎮公正路368巷59號</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021-06-12</t>
+          <t>2021-06-10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>黃圳毅黃壽昌</t>
+          <t>曾德隆</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9893926,0935092813</t>
+          <t>9511411、9514817,0932011049、0919902335(女)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>三星鄉萬富路48號</t>
+          <t>冬山鄉柯林路222號</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021-06-16</t>
+          <t>2021-06-11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>朱小姐(書慎)</t>
+          <t>富豐雜貨店</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0919901999</t>
+          <t>9963168</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>宜蘭市縣民大道二段399巷43號</t>
+          <t>蘇澳鎮南安路70號</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2021-06-12</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>林秋美</t>
+          <t>黃圳毅黃壽昌</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9594642</t>
+          <t>9893926,0935092813</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>冬山鄉香城路</t>
+          <t>三星鄉萬富路48號</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>2021-06-16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>九玄中藥房黃振成</t>
+          <t>朱小姐(書慎)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9326221</t>
+          <t>0919901999</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>宜蘭市宜興路一段111巷20號</t>
+          <t>宜蘭市縣民大道二段399巷43號</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2021-06-26</t>
+          <t>2021-06-21</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>黃文在</t>
+          <t>王維昌(診所)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0922964539</t>
+          <t>0911243924惠姐</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>宜蘭市泰山路負郭二巷36號</t>
+          <t>羅東鎮公正路167號之3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2021-08-30</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>豆漿姑(胡's)</t>
+          <t>林秋美</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0927087513</t>
+          <t>9594642</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>羅東鎮禮運路48巷3號</t>
+          <t>冬山鄉香城路</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>吳春景</t>
+          <t>秋美-娘家</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0921098650</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>宜蘭市黎明三路448巷18弄1號3樓</t>
-        </is>
-      </c>
+          <t>9594642,0911243819</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2021-09-09</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>左旋回流建築師事務所游於穎</t>
+          <t>九玄中藥房黃振成</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9575922</t>
+          <t>9326221</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>羅東鎮愛國路203號1樓</t>
+          <t>宜蘭市宜興路一段111巷20號</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2021-12-02</t>
+          <t>2021-06-26</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>陳世昕</t>
+          <t>黃文在</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0970771168</t>
+          <t>0922964539</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>宜蘭市西後街95巷21-3號</t>
+          <t>宜蘭市泰山路負郭二巷36號</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2021-12-02</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>張怡華</t>
+          <t>林秀鳳</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0932265806</t>
+          <t>0939716289</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>宜蘭市復興路2段112巷13號</t>
+          <t>宜蘭市校舍二路87號</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2021-12-04</t>
+          <t>2021-08-23</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>張順旺</t>
+          <t>琉園</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0935464735</t>
+          <t>9108151#21游小姐</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>羅東鎮光明街63-2號</t>
+          <t>傳藝</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2021-12-07</t>
+          <t>2021-08-27</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>林育銘(游莉穎)</t>
+          <t>葉少豐</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">0934008614林's,★0925110595(林育銘；私)
-</t>
+          <t>9370869</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>宜蘭市校舍二路27巷5號2F</t>
+          <t>宜蘭市校舍二路20巷27號</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2021-12-09</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>蔡士添</t>
+          <t>豆漿姑(胡's)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>9504303,0953383515</t>
+          <t>0927087513</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>五結鄉公園路291巷12號</t>
+          <t>羅東鎮禮運路48巷3號</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2021-12-09</t>
+          <t>2021-09-03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>林嘉鈺(綠屋水果介紹)</t>
+          <t>吳春景</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>9973625,0925123476女兒</t>
+          <t>0921098650</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>蘇澳鎮漁港路28號</t>
+          <t>宜蘭市黎明三路448巷18弄1號3樓</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2021-12-09</t>
+          <t>2021-09-09</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>陳進益(補習班老師)</t>
+          <t>左旋回流建築師事務所游於穎</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>9908527,0912588245</t>
+          <t>9575922</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>蘇澳鎮五甲路68號</t>
+          <t>羅東鎮愛國路203號1樓</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2021-12-10</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>大鼻南包子住家</t>
+          <t>多一點</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0928642692</t>
+          <t>9225292</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>宜蘭市文昌路161巷</t>
+          <t>員山鄉</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2021-12-10</t>
+          <t>2021-12-02</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>阿月檳榔</t>
+          <t>陳世昕</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>9612166,0913152862(女)、0935579609</t>
+          <t>0970771168</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>羅東鎮四育路157號</t>
+          <t>宜蘭市西後街95巷21-3號</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2021-12-15</t>
+          <t>2021-12-02</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>王幸夫</t>
+          <t>張怡華</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>9960268</t>
+          <t>0932265806</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>蘇澳鎮華山路41號</t>
+          <t>宜蘭市復興路2段112巷13號</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2021-12-15</t>
+          <t>2021-12-02</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>鐘來春</t>
+          <t>麗園</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>9515550,0939750950</t>
+          <t>9955886</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>羅東鎮重陽街3號3F之2</t>
+          <t>蘇澳鎮中山路一段2號</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2021-12-16</t>
+          <t>2021-12-04</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>擎毅汽車陳明傑</t>
+          <t>張順旺</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0987039959</t>
+          <t>0935464735</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>員山鄉惠民路130號</t>
+          <t>羅東鎮光明街63-2號</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2021-12-20</t>
+          <t>2021-12-07</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>曾清鄰</t>
+          <t>林育銘(游莉穎)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0937909822</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>★0925110595(林育銘；私)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>宜蘭市校舍二路27巷5號2F</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2021-12-21</t>
+          <t>2021-12-07</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>李彩慧(羅東賣鞋子)</t>
+          <t>群立水電行</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>9502815</t>
+          <t>0972082853(阿鴻),0929910296(張裕萍)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>五結鄉利成路二段403號</t>
+          <t>礁溪鄉龍潭村國宅街83號</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2021-12-21</t>
+          <t>2021-12-08</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>林錦柏金山汽車材料行</t>
+          <t>豆漿姑(二結)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>9583083,0978832681(林'S)</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>冬山鄉冬山路三段526號</t>
-        </is>
-      </c>
+          <t>0927471513顏'R</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>2021-12-09</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>林文誠</t>
+          <t>蔡士添</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0912007451(男),0988007451(女)</t>
+          <t>9504303,0953383515</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>宜蘭市黎明二路368巷83號</t>
+          <t>五結鄉公園路291巷12號</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2021-12-24</t>
+          <t>2021-12-09</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>林國盟</t>
+          <t>林嘉鈺(綠屋水果介紹)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>9308182,0918078222(男)、0928245953(女)</t>
+          <t>9973625,0925123476女兒</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>宜蘭市七張路216巷7弄19號</t>
+          <t>蘇澳鎮漁港路28號</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2021-12-24</t>
+          <t>2021-12-09</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>盧先生(盧怡文)</t>
+          <t>陳進益(補習班老師)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>9505855</t>
+          <t>9908527,0912588245</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>五結鄉五結中路211號</t>
+          <t>蘇澳鎮五甲路68號</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2021-12-10</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>沈老師飛揚補習班</t>
+          <t>阿月檳榔</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0935101028、0953101028</t>
+          <t>9612166,0913152862(女)、0935579609</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>羅東鎮忠孝路</t>
+          <t>羅東鎮四育路157號</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-12-10</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>陳建政(陳育任家)</t>
+          <t>大鼻南包子住家</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>9388301,0910673363</t>
+          <t>0928642692</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>宜蘭市東港路34巷110弄23號</t>
+          <t>宜蘭市文昌路161巷</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-12-11</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>謝宜錚</t>
+          <t>廖淑玲(小戴)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0935329828</t>
+          <t>0980491520</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>五結鄉新生路59巷32號</t>
+          <t>冬山鄉香南路332號</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2022-03-01</t>
+          <t>2021-12-11</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>茶鄉園</t>
+          <t>游燕玲</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>9801153,0952165638</t>
+          <t>9953633,0935239838</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大同鄉松羅村玉蘭路1-1號</t>
+          <t>蘇澳鎮華山路122-1號</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2022-03-01</t>
+          <t>2021-12-13</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>幸福．星空精品旅店</t>
+          <t>王嘉荷</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>9552877</t>
+          <t>0975327332、0930988718(姊姊)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>羅東鎮公正路27號9樓</t>
+          <t>冬山鄉親河路一段226巷10號(尊寶)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2022-03-02</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>乾塢營區</t>
+          <t>林正琦</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>9972422(值),0982232040(徐梓銘行政)</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>0979503398</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>宜蘭市陽明一路112號</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2021-12-15</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>永和豆漿大王</t>
+          <t>王幸夫</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>9358909</t>
+          <t>9960268</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>宜蘭市中山路三段39號</t>
+          <t>蘇澳鎮華山路41號</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2021-12-15</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>帝鳳</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+          <t>鐘來春</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>9515550,0939750950</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>羅東鎮重陽街3號3F之2</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2021-12-16</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>祥德中醫-陳壁煌</t>
+          <t>擎毅汽車陳明傑</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>9322265,0927125467</t>
+          <t>0987039959</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>宜蘭市中山路三段264號</t>
+          <t>員山鄉惠民路130號</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2021-12-16</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>吉姆老爹</t>
+          <t>陳美英(美英姐)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>9227199,0910057760</t>
+          <t>0952022265</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>員山鄉員山路2段411號</t>
+          <t>宜蘭市凱旋路129巷18號</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>2021-12-16</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>林貴雄</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>9252735,0963252735</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>壯圍鄉美福一路1巷2號</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2021-12-17</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>李佳玲</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>9373005,0910059051</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>宜蘭市成功路7號</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2021-12-17</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>陳俊魁(藍佩熒介紹)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0915159150</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>宜蘭市大福路一段11巷10號</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2021-12-17</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>林芳蘊</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>9370011,0981713661</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>宜蘭市校舍一路103巷1號2樓</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2021-12-18</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>陳國揚</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0920630856</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>宜蘭市中興路330巷11號1樓華園社區</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2021-12-20</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>曾清鄰</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0937909822</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2021-12-20</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>三民會計事務所-吳小姐</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0910299069</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>羅東鎮長春路29號2樓</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>李彩慧(羅東賣鞋子)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>9502815</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>五結鄉利成路二段403號</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>林錦柏金山汽車材料行</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>9583083,0978832681(林'S)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>冬山鄉冬山路三段526號</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>陳怡君</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>9373528,0912397831</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>宜蘭市中興路307巷22號</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>林文誠</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0912007451(男),0988007451(女)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>宜蘭市黎明二路368巷83號</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>周老師</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>9324866,0919903336</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>宜蘭市城隍街</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>黃清圳海勒</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>9885718,0952878932</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>礁溪鄉白雲二路132巷18號</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2021-12-24</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>林國盟</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>9308182,0918078222(男)、0928245953(女)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>宜蘭市七張路216巷7弄19號</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2021-12-24</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>盧先生(盧怡文)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>9505855</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>五結鄉五結中路211號</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2021-12-27</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>沈老師飛揚補習班</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0935101028、0953101028</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>羅東鎮忠孝路</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2021-12-30</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>董素卿</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>9558007,0929016959</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>羅東鎮站前南路19巷2號</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>陳建政(陳育任家)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>9388301,0910673363</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>宜蘭市東港路34巷110弄23號</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>謝宜錚</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0935329828</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>五結鄉新生路59巷32號</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>石惠貞</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>9370513,0937160141、0963084901(高博軍)</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>宜蘭市陽明三路80巷7號6F-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2022-01-07</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>林志豪</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>9382621,0989901429</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>宜蘭市黎明三路329巷80號</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2022-02-18</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>遠東鈦金科技廖暳陵</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>9908415#217,0980029773</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>冬山鄉德興六路27號</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2022-03-01</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>茶鄉園</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>9801153,0952165638</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>大同鄉松羅村玉蘭路1-1號</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2022-03-01</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>幸福．星空精品旅店</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>9552877</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>羅東鎮公正路27號9樓</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>乾塢營區</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>9972422(值),0982232040(徐梓銘行政)</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>大埔加油站張榮麟</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>9899521,0989529447(張榮麟)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>三星鄉三星路一段435號</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2022-03-09</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>永和豆漿大王</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>9358909</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>宜蘭市中山路三段39號</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>帝鳳</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>祥德中醫-陳壁煌</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>9322265,0927125467</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>宜蘭市中山路三段264號</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2022-03-17</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>奉天宮</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0937454114(海哥),0952225297(游金榮)</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>員山鄉賢德路二段143號</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2022-03-17</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>財團法人博幼社會福利基金會</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>9801096,0966016956</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>大同鄉松羅村西巷15號</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>吉姆老爹</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9227199,0910057760,9227191(FAX)			</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>員山鄉員山路2段411號</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>千慈科技二廠</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>9287999#337</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>礁溪鄉龍泉路153號1樓</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>千慈科技二廠</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>9287999#337</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>礁溪鄉龍泉路153號2樓</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>千慈科技二廠</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>9287999#337</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>礁溪鄉龍泉路153號3樓</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
           <t>2022-04-07</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>洗車張柏銓</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>9251958,0916929868</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>宜蘭市中山路一段118號</t>
         </is>
